--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.54</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.25</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.55</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1824,14 +1889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.25</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1840,14 +1927,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.55</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1856,13 +1965,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -2087,14 +2258,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
@@ -2103,14 +2274,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.55</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -2119,13 +2290,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,285 +457,319 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4245</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>486002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0350</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>539002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信新兴市场优选混合QDII</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -762,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -792,32 +826,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3608</t>
+          <t>0.1877</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -830,36 +864,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486002</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0871</t>
+          <t>0.0602</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -868,36 +902,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.18</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0728</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -906,36 +940,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.18</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -944,320 +978,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>539002</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信新兴市场优选混合QDII</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.03</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3550</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009563</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3550</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009562</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3550</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1319</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>539002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信新兴市场优选混合QDII</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1042,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1322,36 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>31.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.2683</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1360,36 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1398,36 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1436,36 +1186,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1150</t>
+          <t>0.0483</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1474,36 +1224,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1288,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1568,36 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.56</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2683</t>
+          <t>0.1317</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1606,36 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.1317</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1644,36 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.1317</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1682,36 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.1150</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1720,36 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1758,6 +1508,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1784,7 +1818,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1814,32 +1848,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.3608</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1852,36 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>486002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>工银全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>95.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0602</t>
+          <t>0.0871</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1890,36 +1924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.0728</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1928,36 +1962,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1966,206 +2000,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>539002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>建信新兴市场优选混合QDII</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>87.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009562</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1609</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009563</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1609</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1609</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2179,144 +2043,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6</v>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1609</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1609</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1609</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,36 +843,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.1609</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -864,36 +881,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0602</t>
+          <t>0.1609</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -902,112 +919,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.1609</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0592</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009563</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0592</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1072,36 +1013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.56</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2683</t>
+          <t>0.1877</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1110,36 +1051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0602</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1158,22 +1099,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1186,36 +1127,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1224,36 +1165,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1229,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1318,36 +1259,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>31.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.2683</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1356,36 +1297,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1394,36 +1335,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1432,36 +1373,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1150</t>
+          <t>0.0483</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1470,36 +1411,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1508,6 +1449,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2037,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
+++ b/数据整理/stocks/其他/US01609W1027-阿里巴巴.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.55</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,318 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +974,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银全球股票（QDII）美元</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银全球股票（QDII）港币</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1050,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -848,31 +1149,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1609</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -886,31 +1187,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1609</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -924,31 +1225,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1609</t>
+          <t>0.1119</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +1263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,36 +1314,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.1609</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1051,36 +1352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0602</t>
+          <t>0.1609</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1089,112 +1390,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.1609</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0592</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009563</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0592</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1259,36 +1484,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.56</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2683</t>
+          <t>0.1877</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1297,36 +1522,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0602</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1345,22 +1570,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1373,36 +1598,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1411,36 +1636,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1700,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1505,36 +1730,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>31.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.2683</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1543,36 +1768,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1581,36 +1806,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1619,36 +1844,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1150</t>
+          <t>0.0483</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1657,36 +1882,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1695,6 +1920,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1978,7 +2449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2222,288 +2693,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4245</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>486002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0350</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>539002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信新兴市场优选混合QDII</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>